--- a/dataset/day_9.xlsx
+++ b/dataset/day_9.xlsx
@@ -803,7 +803,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>G((Lab.AirQuality.low &amp; Lab.HumanState.detected) -&gt; (F[0, 10*60] Lab.air_quality_up))</t>
+          <t>#7</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -16675,7 +16675,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>G((Lab.AirQuality.low &amp; Lab.HumanState.detected) -&gt; (F[0, 10*60] Lab.air_quality_up))</t>
+          <t>#7</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -23739,7 +23739,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -29391,7 +29391,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -31563,7 +31563,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -35535,7 +35535,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -41359,7 +41359,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -44011,7 +44011,7 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
@@ -45863,7 +45863,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -49435,7 +49435,7 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
@@ -50687,7 +50687,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -52179,7 +52179,7 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
@@ -54671,7 +54671,7 @@
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1350" t="inlineStr">
@@ -62523,7 +62523,7 @@
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1546" t="inlineStr">
@@ -62975,7 +62975,7 @@
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1557" t="inlineStr">
@@ -64387,7 +64387,7 @@
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1592" t="inlineStr">
@@ -67039,7 +67039,7 @@
       </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1658" t="inlineStr">
@@ -72011,7 +72011,7 @@
       </c>
       <c r="H1782" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1782" t="inlineStr">
